--- a/medicine/Sexualité et sexologie/Oswalt_Kolle/Oswalt_Kolle.xlsx
+++ b/medicine/Sexualité et sexologie/Oswalt_Kolle/Oswalt_Kolle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oswalt Kolle (né  le 2 octobre 1928 à Kiel, décédé le 24 septembre 2010 à Amsterdam) était un Allemand, journaliste et producteur de cinéma; il s'est fait connaître surtout dans l'espace germanophone par ses films qui traitaient de sexualité.
 Fils du psychiatre réputé Kurt Kolle (de), il alla contre le désir de son père qui voulait que lui aussi devînt médecin et, après la Deuxième Guerre mondiale, il fit des études d'agriculture, mais des circonstances personnelles l'amenèrent au journalisme et il commença à travailler comme pigiste à la Frankfurter Neue Presse. En 1951 il dirigea une édition locale de la Frankfurter Nachtausgabe. Finalement, il devint rédacteur en chef adjoint de la Star Revue.
@@ -517,7 +529,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Oswalt Kolle » (voir la liste des auteurs).</t>
         </is>
